--- a/metrics/API_providers/groq_llama31_8b.xlsx
+++ b/metrics/API_providers/groq_llama31_8b.xlsx
@@ -455,21 +455,21 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>369.6349311827533</v>
+        <v>335.2645061627563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.643254280090332</v>
+        <v>0.3657305240631104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>375.0474884139837</v>
+        <v>372.2330624762292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.564436674118042</v>
+        <v>0.6124362945556641</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>298.0654479375919</v>
+        <v>319.2551956947124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5524554252624512</v>
+        <v>0.594801664352417</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>252.6477772944016</v>
+        <v>269.1048515233067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2264337539672852</v>
+        <v>0.2812516689300537</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>226.4513247233422</v>
+        <v>243.6960197337821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2052664756774902</v>
+        <v>0.357792854309082</v>
       </c>
     </row>
     <row r="7">
@@ -510,32 +510,32 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>199.3867972469754</v>
+        <v>220.5628161684203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.29148268699646</v>
+        <v>0.42317795753479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>187.5829850640768</v>
+        <v>196.1610345996897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2335054874420166</v>
+        <v>0.6326050758361816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>181.1638800174817</v>
+        <v>176.3372187817485</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5836431980133057</v>
+        <v>0.6680698394775391</v>
       </c>
     </row>
     <row r="10">
@@ -543,43 +543,43 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>169.5633372355423</v>
+        <v>178.3907915040674</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4244399070739746</v>
+        <v>0.241290807723999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>168.583114984372</v>
+        <v>166.270309690092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.268573522567749</v>
+        <v>0.2812178134918213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>161.2423230259901</v>
+        <v>160.7072811408503</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2405250072479248</v>
+        <v>0.2748517990112305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>150.8667647563474</v>
+        <v>156.315196704043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4996509552001953</v>
+        <v>0.2510297298431396</v>
       </c>
     </row>
     <row r="14">
@@ -587,87 +587,87 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>140.0913940631476</v>
+        <v>150.3442623355267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6253559589385986</v>
+        <v>0.6438987255096436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>132.1493426046289</v>
+        <v>146.5740650764066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.271735668182373</v>
+        <v>0.598538875579834</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>132.2733839267356</v>
+        <v>141.8123244126867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6274192333221436</v>
+        <v>0.2729933261871338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>129.1888758632127</v>
+        <v>141.5515627932471</v>
       </c>
       <c r="C17" t="n">
-        <v>0.590395450592041</v>
+        <v>0.4466428756713867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>129.4134682035748</v>
+        <v>134.0001656368206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6376330852508545</v>
+        <v>0.2507517337799072</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>127.3718042243616</v>
+        <v>129.6503743166548</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3711507320404053</v>
+        <v>0.65285325050354</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>125.4239208324412</v>
+        <v>127.0479340928579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2964446544647217</v>
+        <v>0.2258250713348389</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>120.6009539364366</v>
+        <v>125.8316192390723</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1881492137908936</v>
+        <v>0.438969612121582</v>
       </c>
     </row>
   </sheetData>
